--- a/Curriculum/Subject Data.xlsx
+++ b/Curriculum/Subject Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBD0A9-DE1D-4350-BA57-55990965D710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3244691F-CB84-4377-92FC-E3BFD9326E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Subject Data 2560" sheetId="1" r:id="rId1"/>
+    <sheet name="2564" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="734">
   <si>
     <t>subject_id</t>
   </si>
@@ -1845,6 +1846,578 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>อื่นๆ</t>
+  </si>
+  <si>
+    <t>01076140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แคลคูลัส 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076141 </t>
+  </si>
+  <si>
+    <t>01076032</t>
+  </si>
+  <si>
+    <t>01076107</t>
+  </si>
+  <si>
+    <t>01076108</t>
+  </si>
+  <si>
+    <t>CIRCUITS AND ELECTRONICSIN PRACTICE</t>
+  </si>
+  <si>
+    <t>ความน่าจะเป็นและสถิติ</t>
+  </si>
+  <si>
+    <t>The experiments related to 01076107 CIRCUITS AND ELECTRONICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076103 </t>
+  </si>
+  <si>
+    <t>01076104</t>
+  </si>
+  <si>
+    <t>โครงงานโปรแกรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>PROGRAMMING PROJECT</t>
+  </si>
+  <si>
+    <t>Introduction to fundamental concepts of procedural programming and emphasis in problem solving. Topics include data types, control structures, functions, arrays, files, pointer and the mechanics of running, testing, and debugging.</t>
+  </si>
+  <si>
+    <t>01076016</t>
+  </si>
+  <si>
+    <t>01076101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วิศวกรรมคอมพิวเตอร์เบื้องต้น </t>
+  </si>
+  <si>
+    <t>Computer engineering project preparation for select senior project: defining a question, basic research knowledge, skills to selected project, preparing a comprehensive literature review of chosen topic, technical report writing and verbal communication.</t>
+  </si>
+  <si>
+    <t>Introduction to computer Engineering roles --hardware and software. . It aims to provide students with an understanding of the role computation can play in solving problems. It also aims to help students to feel justifiably confident of their ability tohands-on experience, assemble and test hardware projectsthat allow them to accomplish setting goals. This class will use the Arduino microcontroller board to build hardware project.</t>
+  </si>
+  <si>
+    <t>01076105</t>
+  </si>
+  <si>
+    <t>The design and implementation of software using object-oriented programming
+techniques that include objects, class, polymorphism, exception handling, inheritance and interfaces.
+Students will analyze program specifications and identify appropriate objects and classes. Additional
+programming topics include graphical user interfaces and UML modeling of small systems.</t>
+  </si>
+  <si>
+    <t>01076106</t>
+  </si>
+  <si>
+    <t>01076109</t>
+  </si>
+  <si>
+    <t>โครงสร้างข้อมูลเชิงวัตถุ</t>
+  </si>
+  <si>
+    <t>โครงงานโปรแกรมเชิงวัตถุ</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED PROGRAMMING PROJECT</t>
+  </si>
+  <si>
+    <t>The design and implementation of software using object-oriented programming techniques that include objects, class, polymorphism, exception handling, inheritance and interfaces. Students will analyze program specifications and identify appropriate objects and classes. Additional programming topics include graphical user interfaces and UML modeling of small systems.</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED DATA STRUCTURES</t>
+  </si>
+  <si>
+    <t>Fundamental of solving problems and software design using data structures including linked lists, trees, stacks, queues and graphs. Algorithms for sorting, searching, and other fundamental operations. Introduction to foundations for analysis of iterative and recursive algorithms. Implementation of selected algorithms usingobject-oriented paradigm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076110 </t>
+  </si>
+  <si>
+    <t>01076112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โครงงานโครงสร้างข้อมูลเชิงวัตถุ </t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED DATA STRUCTURES PROJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">พื้นฐานระบบดิจิตอล </t>
+  </si>
+  <si>
+    <t>Introduction to Digital Systems; Binary Systems; Boolean Algebra and Simplification; Combinational Circuit; Sequential Components i.e. latches, flip-flops, registers and counters; Sequential Circuits; Basic ALU (Arithmetic and Logic Unit) and Control Unit; Hardware Description Language</t>
+  </si>
+  <si>
+    <t>01076113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGITAL SYSTEM FUNDAMENTALS IN PRACTICE </t>
+  </si>
+  <si>
+    <t>ปฏิบัติการพื้นฐานระบบดิจิตอล</t>
+  </si>
+  <si>
+    <t>Introduction to Digital Systems; Binary Systems; Boolean Algebra and Simplification; Combinational Circuit; Sequential Components i.e. latches, flip-flops, registers and counters; Sequential Circuits; Basic ALU (Arithmetic and Logic Unit) and Control Unit; Hardware Description Language;</t>
+  </si>
+  <si>
+    <t>01076114</t>
+  </si>
+  <si>
+    <t>องค์ประกอบและสถาปัตยกรรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>COMPUTER ORGANIZATION AND ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>Overview of Computer Architecture and Organization; Data Representation, Memory Allocation and Access; Central Processing Unit; Assembly Programming and Instruction Set Architecture; High-level Software to Low-level Instructions; Memory Hierachy; Data Transfer and Input/Output (I/O) Techniques; Computer Arithmetic; Measuring system performance; Towards higher speed.</t>
+  </si>
+  <si>
+    <t>01076115</t>
+  </si>
+  <si>
+    <t>01076116</t>
+  </si>
+  <si>
+    <t>ปฏิบัติการองค์ประกอบคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>COMPUTER ORGANIZATION IN PRACTICE</t>
+  </si>
+  <si>
+    <t>Fundamental concepts and protocols in computer networks, particularly IP networks. Packet switching and circuit switching networks, layered network architectures. Application layer protocols, TCP/IP protocol suite, routing protocols, link layer protocols and multiple access networks. Wired and wireless local area network standards.</t>
+  </si>
+  <si>
+    <t>01076117</t>
+  </si>
+  <si>
+    <t>ปฏิบัติการเครือข่ายคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTER NETWORKS IN PRACTICE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบบปฏิบัติการ </t>
+  </si>
+  <si>
+    <t>Organization and structure of operating systems. Control, communication and synchronization of concurrent processes. Processor and job scheduling. Memory organization and management including paging, segmentation, and virtual memory. Resource management. Deadlock avoidance, detection, recovery. File system concepts and structure. Protection and security. Distributed processing.Virtualization and cloud computing.</t>
+  </si>
+  <si>
+    <t>DISCRETESTRUCTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โครงสร้างแบบดิสครีต </t>
+  </si>
+  <si>
+    <t>01076121</t>
+  </si>
+  <si>
+    <t>ทฤษฎีการคำนวณ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบบฐานข้อมูล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076263 </t>
+  </si>
+  <si>
+    <t>Database system concepts; files and databases; database system architecture; data entities and relationships; data modeling using Entity-Relation Diagrams and normalization technique; hierarchical; network and relational models of databases; query language and database language.</t>
+  </si>
+  <si>
+    <t>01076118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การดูแลแพลทฟอร์มระบบ </t>
+  </si>
+  <si>
+    <t>01076119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การพัฒนาโปรแกรมบนเว็บ </t>
+  </si>
+  <si>
+    <t>WEB APPLICATION DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>This course is part of software development practices, with an emphasis on design. It focuses on building web applications. Including web basics, HTML, cascading style sheets (CSS); model-view-controller design, web framework, data and object modelling, design concepts, java script, DOM, event &amp; Ajax.</t>
+  </si>
+  <si>
+    <t>01076120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โครงงานพัฒนาโปรแกรมบนเว็บ </t>
+  </si>
+  <si>
+    <t>WEB APPLICATION DEVELOPMENT PROJECT</t>
+  </si>
+  <si>
+    <t>01076050</t>
+  </si>
+  <si>
+    <t>Microcontroller Architecture; Digital Input and Output; Serial Communications; Analog-to-Digital Conversion; Digital-to-Analog Conversion; Timers; Interrupt Handling; Sensors and Actuators; Displays; Memory Technology; Microcontroller Programming and Development;</t>
+  </si>
+  <si>
+    <t>01076051</t>
+  </si>
+  <si>
+    <t>โครงงานไมโครคอนโทรลเลอร์</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER APPLICATION AND DEVELOPMENTIN PRACTICE</t>
+  </si>
+  <si>
+    <t>01076052</t>
+  </si>
+  <si>
+    <t>ระบบสมองกลฝังตัวแบบเรียลไทม์</t>
+  </si>
+  <si>
+    <t>REAL-TIME EMBEDDED SYSTEMS</t>
+  </si>
+  <si>
+    <t>This course is composed of two parts. The first part focuses on principle of real-time operating system (RTOS) including determinism, real-time scheduling, interrupt handling and latency, task synchronization, inter-task communications and real-time debugging. The second part covers basic concept of programming and debugging Linux application, Linux kernel configuration, device driver development, bootloader, filesystem and deployment of embedded Linux devices</t>
+  </si>
+  <si>
+    <t>01076053</t>
+  </si>
+  <si>
+    <t>Introduction to concepts and technology behind the Internet of Things: smart devices, communication (BLE, WiFi, Wireless Sensor Networks, LoRa, Zixbee), agents and multiagents system, protocol (HTTP, uPnP, CoAP, MQTT, XMPP), Internet of things service platform, security and interoperability.</t>
+  </si>
+  <si>
+    <t>01076034</t>
+  </si>
+  <si>
+    <t>หลักการของกระบวนการพัฒนาซอฟต์แวร์</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF SOFTWARE DEVELOPMENT PROCESS</t>
+  </si>
+  <si>
+    <t>Introduction to modern software development principles and practices, including the use of software processes in actual product development: life cycle models, IDE, version control system, user requirements gathering, object oriented software and UML, software architecture, software design and implementation, testing, software refactoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระบวนการพัฒนาซอฟต์แวร์เชิงปฏิบัติ </t>
+  </si>
+  <si>
+    <t>SOFTWARE DEVELOPMENT PROCESS IN PRACTICE</t>
+  </si>
+  <si>
+    <t>01076036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER EXPERIENCE AND USER INTERFACE DESIGN </t>
+  </si>
+  <si>
+    <t>This course provides a comprehensive overview of the user experience and user interface design process, and is intended to familiarize students with the methods, concepts, and techniques necessary to make user experience design an integral part of developing information interfaces. The course provides students with an opportunity to acquire the resources, skills, and hands-on experience they need to design, develop, and evaluate information interfaces from a user-centered design perspective.</t>
+  </si>
+  <si>
+    <t>01076037</t>
+  </si>
+  <si>
+    <t>โครงงานออกแบบประสบการณ์และส่วนติดต่อผู้ใช้</t>
+  </si>
+  <si>
+    <t>USER EXPERIENCE AND USER INTERFACE PROJECT</t>
+  </si>
+  <si>
+    <t>01076040</t>
+  </si>
+  <si>
+    <t>A study of network architecture, industry standards and communications protocols, logical and physical topologies for local area networks (LANs) and wide area networks (WANs), Including routing and switching concepts; Virtual LAN; Spanning tree; inter-VLAN routing; gateway redundancy technologies; wireless LAN; IP telephony; security feature in a switched network.</t>
+  </si>
+  <si>
+    <t>01076041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปฏิบัติการมาตรฐานและเทคโนโลยีเครือข่าย </t>
+  </si>
+  <si>
+    <t>INTERNETWORKING STANDARDS AND TECHNOLOGIES IN PRACTICE</t>
+  </si>
+  <si>
+    <t>01076042</t>
+  </si>
+  <si>
+    <t>Overview of theories, principles, and knowledge in information security; Risk management, Access control; Encryption and Decryption; Physical security; Security architecture; Business continuity plan; Application security; Operating system and Service platform protections; Threats and Malwares; Basis of network security; Privacy, Ethical, and Legal issues</t>
+  </si>
+  <si>
+    <t>01076043</t>
+  </si>
+  <si>
+    <t>สถาปัตยกรรมคลาวด์เบื้องต้น</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO CLOUD ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>01076044</t>
+  </si>
+  <si>
+    <t>ปฏิบัติการสถาปัตยกรรมคลาวด์เบื้องต้น</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO CLOUD ARCHITECTURE IN PRACTICE</t>
+  </si>
+  <si>
+    <t>Basic concepts of cloud computing and characteristics; Cloud Service Platform and Infrastructure Technologies; Cloud-native application development; Cloud Management; Cloud Security; Tools and software concerning cloud computing.</t>
+  </si>
+  <si>
+    <t>Computer engineering project or research topic in the related fields is carried out under supervision of department members. Progress of works has to be reported regularly throughout semester. At the end of semester, reports and project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โครงงาน 2 </t>
+  </si>
+  <si>
+    <t>The continuation of work, in 01076311 Project 1, is made to the completion. Progress of works has to be reported regularly throughout semester. At the end of semester, the completed work and full report are required in submission. Oral presentation and demonstration of works are presented to the examination committee</t>
+  </si>
+  <si>
+    <t>01006029</t>
+  </si>
+  <si>
+    <t>COOPERATIVE EDUCATION</t>
+  </si>
+  <si>
+    <t>The students participate in the cooperative work with industrial partners at least 16 weeks. The approval and evaluation by the department committee is required.</t>
+  </si>
+  <si>
+    <t>01006005</t>
+  </si>
+  <si>
+    <t>Students enroll in the oversea training course to train and conduct special projects relating to their academic background. The training may occur in an institute or an industry that can be either public or private. Any relating issue should conform to the proclamation from the Faculty of Engineering</t>
+  </si>
+  <si>
+    <t>Introduction to robotic basic; Study of theory and principle of micro-robot in hardware and software; Design and development in robot: mechanic, control, display, movement, detector; C programming in robot control; Application of input output devices: sensor, motor, ultrasonic; Assembling and testing system; Control programs and interfacing technique; Testing and debugging.</t>
+  </si>
+  <si>
+    <t>This course introduces high-performance computing and its usage in solving scientific problems. Major topics include: grid and cluster computing, parallel computing, agent-based modelling and simulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การออกแบบดิจิตอลขั้นสูงโดยใช้เฮชดีแอล </t>
+  </si>
+  <si>
+    <t>This course covers the systematic design of advanced digital systems using fieldprogrammable gate arrays (FPGAs). The emphasis is on top-down design starting with a software</t>
+  </si>
+  <si>
+    <t>01076414</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO AUTONOMOUS VEHICLE</t>
+  </si>
+  <si>
+    <t>รถยนต์ขับเคลื่อนอัตโนมัติเบื้องต้น</t>
+  </si>
+  <si>
+    <t>Introduction to Autonomy; Hardware and Software Architecture; Visual Perception; State Estimation and Localization; Motion Planning; Machine Learning for Autonomous Vehicle</t>
+  </si>
+  <si>
+    <t>Language Translation Process: Compilation; Assembly; Linking; Lexical
+Analysis, Parsing; Generation Phase; Optimization; Machine-dependent and machine-dependent Aspects of Translation; Difference between Compiler and Interpreter; Compiler
+Tools; Data Flow and Control Flow; Addressing; Memory Mapping; Algebraic Simplification;
+Optimization; Machine Code Generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การออกแบบและวิเคราะห์อัลกอริทึม </t>
+  </si>
+  <si>
+    <t>Theory and techniques of algorithm; Algorithm design; Searching; Selecting; Sorting; Graph Theory; Number Theory; Encryption; Greedy method; Divide and Conquer; Dynamic Programming; Backtracking; Branch-and-Bound; Elementary ideas and results on discrete probability; mathematical foundations needed to support measures of complexity and performance; Complexity analysis; Resource measuring tools</t>
+  </si>
+  <si>
+    <t>Human computer interaction, human factors, psychology, task analysis, usercentered design, usability engineering, interface design and evaluation, ubiquitous computing, collaborative and virtual environment</t>
+  </si>
+  <si>
+    <t>ระบบฐานข้อมูลขั้นสูง</t>
+  </si>
+  <si>
+    <t>Database management systems; structure and components; physical databases; access mechanisms; query processing; transaction processing; recovery control; concurrency control; distributed database systems; object-oriented databases; deductive databases</t>
+  </si>
+  <si>
+    <t>01076599</t>
+  </si>
+  <si>
+    <t>Preparation for developing high-quality software through successful verification and validation techniques. Fundamental principles of software testing, implementing software testing practices, ensuring the thoroughness of testing to gain confidence in the correctness of the software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วิศวกรรมความต้องการของระบบ </t>
+  </si>
+  <si>
+    <t>Introduction to requirements engineering techniques for software-intensive systems. Requirements Modeling. Requirements Elicitation. Software Requirements Specification (SRS) document. Requirements Representation (Formal and Informal).. Requirements Validation</t>
+  </si>
+  <si>
+    <t>01076558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไมโครเซอร์วิสและการออกแบบเรสเอพีไอ </t>
+  </si>
+  <si>
+    <t>MICROSERVICES AND REST API DESIGN</t>
+  </si>
+  <si>
+    <t>In this course, student will learn the skills needed to expose application’s domain model as REST (representational state transfer) microservices. First, learn about the microservices architecture. Next, how to model complex entity relationships, Finally, take a look at how to implement custom search APIs, and learn how to write effective integration tests so that small changes do not cause unexpected behavior in APIs.</t>
+  </si>
+  <si>
+    <t>01076559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFTWARE ARCHITECTURE AND DESIGN </t>
+  </si>
+  <si>
+    <t>This course introduces basic concepts and principles about software design and software architecture. It starts with discussion on design issues, followed by coverage on design patterns. It then gives an overview of architectural structures and styles. Practical approaches and methods for creating and analyzing software architecture are presented. The emphasis is on the interaction between quality attributes and software architecture. Students will also gain experiences with examples in design pattern application and case studies in software architecture.</t>
+  </si>
+  <si>
+    <t>01076560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การพัฒนาโปรแกรมบนโทรศัพท์มือถือ </t>
+  </si>
+  <si>
+    <t>MOBILE APPLICATION DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>This course introduces students to design and develop smart application on smartphone. The application will be able to run on both android and iOS operating system. The students shall explore through various development tools starting from visual programming environment to advance software development framework. Concept of artificial intelligent will be explored and applied to the application. At the end of this course, the students should be able to build smart application on the smartphone.</t>
+  </si>
+  <si>
+    <t>Technology and Components of Data Warehouse; Data Warehouse and Data Mart Development; Dimensional Modeling Development; Strategy of Data Warehouse Development; Data Warehouse Design; Development case studies.</t>
+  </si>
+  <si>
+    <t>Data mining concepts and techniques; Efficiency, pros and cons of data mining algorithms; Data preprocessing; Frequent pattern mining; Association rules; Classification; Prediction; Cluster analysis; Neural network; Mining special data: multimedia data, social network data, and spatial data; Data mining applications and trends; Data warehousing</t>
+  </si>
+  <si>
+    <t>Big data concept; Hadoop cluster; YARN; Hadoop Distributed File System (HDFS); Map/Reduce; Batch processing; In-memory processing; Real-time processing; Data sources and data ingestion; Application example;</t>
+  </si>
+  <si>
+    <t>01076598</t>
+  </si>
+  <si>
+    <t>This course presents a wide range of data analytic techniques and is structured around the broad contours of the different types of data analytics, namely, descriptive, inferential, predictive, and prescriptive analytics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การประมวลผลภาพ </t>
+  </si>
+  <si>
+    <t>Image Signal; Analysis Image Signal; Image Acquisition; Image Enhancement in the Spatial Domain; Image Enhancement in the Frequency Domain; Image Filtering; Image Segmentation; Image Representation; Image Coding.</t>
+  </si>
+  <si>
+    <t>Media Classification; Digital data representation and communication; Digital
+image representation; Digital image processing; Digital audio representation; Digital audio
+processing; Digital video data representation and communication; Digital video processing</t>
+  </si>
+  <si>
+    <t>Overview of graphic systems; input-output devices; scan-conversion; twodimensional transformations; translation; scaling; rotation; reflection; shearing; windowing concepts; clipping algorithms; window-to-viewport transformation; three-dimensional concepts; three-dimensional representations; three-dimensional transformations; threedimensional viewing; hidden-surface and hidden-line removal; shading and color models; application of computer graphics.</t>
+  </si>
+  <si>
+    <t>Augmented reality architecture, image recognition, 3D interaction, tracking technology, geolocation functionality, augmented reality programming; sensors, fiduciary markers, and markerless. Augmented reality game project.</t>
+  </si>
+  <si>
+    <t>This course provides a broad introduction to machine learning and statistical pattern recognition. Topics include: supervised learning (generative/discriminative learning, parametric/non-parametric learning, neural networks, support vector machines); unsupervised learning (clustering, dimensionality reduction, recommender systems, deep learning); learning theory (bias/variance tradeoffs; VC theory; large margins); reinforcement learning and adaptive control.</t>
+  </si>
+  <si>
+    <t>Meanings of artificial intelligence; Various knowledge representations, such as semantic networks, frames, rules, logic, etc.; Problem solving by search, i.e. uninformed search, heuristic search, playing games using search, elementary logic, logical reasoning, knowledge base systems, rule-based production systems; Expert systems; Machine learning, planning; Intelligent agents; Computer languages for artificial intelligence.</t>
+  </si>
+  <si>
+    <t>01076533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเรียนรู้เชิงลึก </t>
+  </si>
+  <si>
+    <t>DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>Types of learning; Linear classification with perceptron; Basic optimization with gradient descent; Fully connected neural network; Loss function; Back-propagation algorithm; Convlutional neural network</t>
+  </si>
+  <si>
+    <t>The course studies the theory, design, and implementation of Information Retrieval (IR) techniques in text-based information systems. The theoretical component of the course focuses on IR methods for the processing, indexing, querying, organisation, and classification of textual documents, including hypertext documents available on the worldwide-web. A variety of current topics are also covered, including social media, recommendation systems, and ranking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สถาปัตยกรรมและการบริหารความมั่นคงไอซีที </t>
+  </si>
+  <si>
+    <t>ICT components, security concepts and theories, security architecture, security improvement process, security devices and protection tools, security management, security standards, security policy, and legal issues</t>
+  </si>
+  <si>
+    <t>IT components, vulnerability and IT threat, denial of service attack, IT security concepts, attacks protection process and technique, security assessment and security improvement process.</t>
+  </si>
+  <si>
+    <t>Introduction to the principles and techniques associated with the cyber security practice known as penetration testing or ethical hacking. The course covers planning, reconnaissance, scanning, exploitation, post-exploitation, and result reporting. The student discovers how system vulnerabilities can be exploited and learns to avoid such problems.</t>
+  </si>
+  <si>
+    <t>01076636</t>
+  </si>
+  <si>
+    <t>การรุกรานความมั่นคงปลอดภัยทางไซเบอร์</t>
+  </si>
+  <si>
+    <t>OFFENSIVE CYBER SECURITY</t>
+  </si>
+  <si>
+    <t>Theories, commands, and fundamental principles in network and web application penetration including techniques and methods for obtaining important information and taking over the system. As well as programming techniques for attacking computer internal memory and operating systems. The real-world penetration hacking, some examples, and many of practical practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซอฟต์แวร์กำหนดเครือข่าย </t>
+  </si>
+  <si>
+    <t>The course will cover software defined networrking(SDN) principles; OpenFlow; controller and switch design; network architecture;network virtualisation; SDN security; and SDN research topics.</t>
+  </si>
+  <si>
+    <t>Introduction to wireless network technologies, wireless transmission, antenna, access control, 802.11 standard. Planning, design and deploying Wireless LAN, wireless network security.</t>
+  </si>
+  <si>
+    <t>01076635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เครือข่ายสวิตซ์ไอพี </t>
+  </si>
+  <si>
+    <t>IP SWITCHED NETWORKS</t>
+  </si>
+  <si>
+    <t>The main objective of this course is to provide an overview of a campus network, building a campus network using multilayer switching technologies over high speed Ethernet. This course includes both routing and switching concepts, cover both layer 2 and layer 3 technologies. It also teaches student a virtual LAN, Spanning tree, interVLAN routing, gateway redundancy technologies, and security feature in a switched networks.</t>
+  </si>
+  <si>
+    <t>การจำลองระบบด้วยคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>01076422</t>
+  </si>
+  <si>
+    <t>IT ENTREPRENEURSHIP AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>This course covers the basic of IT entrepreneurship and management including an overview of IT business process; IT standards; Technology trends and competitions; IT product development process; Art of speech and presentation; Financial investment and marketing planning; Effective meeting; dealing with customer demands; Self-learningand self-improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การประกอบการและการจัดการด้านเทคโนโลยีสารสนเทศ </t>
+  </si>
+  <si>
+    <t>01076423</t>
+  </si>
+  <si>
+    <t>การวางแผนเชิงกลยุทธ์โดยใช้บอร์ดและการ์ดเกม</t>
+  </si>
+  <si>
+    <t>STRATEGIC PLANNING USING BOARD AND CARD GAME</t>
+  </si>
+  <si>
+    <t>This course covers the strategic planning, study and demonstrate the application of strategic using board game, card game, and computer game, Rules of board game, card game, and computer game; Strategic planning; Strategic analysis; Strategic improvement and the application of strategic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การจัดการโครงการเทคโนโลยีสารสนเทศ </t>
+  </si>
+  <si>
+    <t>Meaning of Project; Importance of information technology project management; Project feasibility; Project integration management; Project scope management; Project time management; Project cost management; Project quality management; Project human resource management; Project communication management; Project risk management; Project procurement management; Project management tools</t>
   </si>
 </sst>
 </file>
@@ -1893,11 +2466,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1905,8 +2475,8 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C307C-572F-4642-AAED-CBC8E2D1396E}">
   <dimension ref="A1:I378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,3767 +2802,4274 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I2" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I3" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I4" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>289</v>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2560</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>289</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2560</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="I7" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I8" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I9" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="I10" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I11" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I12" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="I13" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="I14" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I15" s="2">
+        <v>2560</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="I16" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="I17" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="I18" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="I19" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="I20" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="I21" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="I24" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="I25" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="I26" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="I27" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="I28" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="I29" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="I30" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="I31" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="I32" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="G37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="G38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="G39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="G40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="G41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="G42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="G43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="G44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="G45" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="G46" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="G47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="G48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="G49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="G50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="G51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="G52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="G53" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="G54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="G55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="G56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="G57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="G58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="G59" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="G60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="G61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="G62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="G63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="G64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="G65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="G66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="G67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="G68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="G69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="H73">
+      <c r="E73" s="4"/>
+      <c r="G73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="I73" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="H74">
+      <c r="E74" s="4"/>
+      <c r="G74" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="I74" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="H75">
+      <c r="E75" s="4"/>
+      <c r="G75" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="I75" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="G76" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="G88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="H91">
+      <c r="E91" s="4"/>
+      <c r="G91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="I91" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="H92">
+      <c r="E92" s="4"/>
+      <c r="G92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="I92" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I94" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="G96" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I96" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I98" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="G100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="G101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="G102" t="s">
-        <v>289</v>
-      </c>
-      <c r="H102">
+      <c r="E102" s="4"/>
+      <c r="F102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="I102" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="G103" t="s">
-        <v>289</v>
-      </c>
-      <c r="H103">
+      <c r="E103" s="4"/>
+      <c r="F103" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="I103" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="G104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H104">
+      <c r="E104" s="4"/>
+      <c r="F104" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="I104" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="G105" t="s">
-        <v>289</v>
-      </c>
-      <c r="H105">
+      <c r="E105" s="4"/>
+      <c r="F105" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="I105" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s">
+      <c r="E106" s="4"/>
+      <c r="F106" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G106" t="s">
-        <v>289</v>
-      </c>
-      <c r="H106">
+      <c r="G106" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="I106" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s">
+      <c r="E107" s="4"/>
+      <c r="F107" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G107" t="s">
-        <v>289</v>
-      </c>
-      <c r="H107">
+      <c r="G107" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="I107" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s">
+      <c r="E108" s="4"/>
+      <c r="F108" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G108" t="s">
-        <v>289</v>
-      </c>
-      <c r="H108">
+      <c r="G108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="I108" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s">
+      <c r="E109" s="4"/>
+      <c r="F109" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G109" t="s">
-        <v>289</v>
-      </c>
-      <c r="H109">
+      <c r="G109" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="I109" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s">
+      <c r="E110" s="4"/>
+      <c r="F110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G110" t="s">
-        <v>289</v>
-      </c>
-      <c r="H110">
+      <c r="G110" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="I110" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s">
+      <c r="E111" s="4"/>
+      <c r="F111" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G111" t="s">
-        <v>289</v>
-      </c>
-      <c r="H111">
+      <c r="G111" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="I111" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s">
+      <c r="E112" s="4"/>
+      <c r="F112" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G112" t="s">
-        <v>289</v>
-      </c>
-      <c r="H112">
+      <c r="G112" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="I112" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s">
+      <c r="E113" s="4"/>
+      <c r="F113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G113" t="s">
-        <v>289</v>
-      </c>
-      <c r="H113">
+      <c r="G113" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="I113" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G114" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I114" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s">
+      <c r="E115" s="4"/>
+      <c r="F115" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G115" t="s">
-        <v>289</v>
-      </c>
-      <c r="H115">
+      <c r="G115" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H115" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="I115" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s">
+      <c r="E116" s="4"/>
+      <c r="F116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G116" t="s">
-        <v>289</v>
-      </c>
-      <c r="H116">
+      <c r="G116" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="I116" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s">
+      <c r="E117" s="4"/>
+      <c r="F117" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G117" t="s">
-        <v>289</v>
-      </c>
-      <c r="H117">
+      <c r="G117" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="I117" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s">
+      <c r="E118" s="4"/>
+      <c r="F118" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G118" t="s">
-        <v>289</v>
-      </c>
-      <c r="H118">
+      <c r="G118" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="I118" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s">
+      <c r="E119" s="4"/>
+      <c r="F119" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G119" t="s">
-        <v>289</v>
-      </c>
-      <c r="H119">
+      <c r="G119" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="I119" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s">
+      <c r="E120" s="4"/>
+      <c r="F120" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G120" t="s">
-        <v>289</v>
-      </c>
-      <c r="H120">
+      <c r="G120" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="I120" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s">
+      <c r="E121" s="4"/>
+      <c r="F121" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G121" t="s">
-        <v>289</v>
-      </c>
-      <c r="H121">
+      <c r="G121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="I121" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s">
+      <c r="E122" s="4"/>
+      <c r="F122" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G122" t="s">
-        <v>289</v>
-      </c>
-      <c r="H122">
+      <c r="G122" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H122" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="I122" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s">
+      <c r="E123" s="4"/>
+      <c r="F123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G123" t="s">
-        <v>289</v>
-      </c>
-      <c r="H123">
+      <c r="G123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H123" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="I123" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s">
+      <c r="E124" s="4"/>
+      <c r="F124" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G124" t="s">
-        <v>289</v>
-      </c>
-      <c r="H124">
+      <c r="G124" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H124" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="I124" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s">
+      <c r="E125" s="4"/>
+      <c r="F125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G125" t="s">
-        <v>289</v>
-      </c>
-      <c r="H125">
+      <c r="G125" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H125" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="I125" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s">
+      <c r="E126" s="4"/>
+      <c r="F126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G126" t="s">
-        <v>289</v>
-      </c>
-      <c r="H126">
+      <c r="G126" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H126" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="I126" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s">
+      <c r="E127" s="4"/>
+      <c r="F127" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G127" t="s">
-        <v>289</v>
-      </c>
-      <c r="H127">
+      <c r="G127" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H127" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="I127" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s">
+      <c r="E128" s="4"/>
+      <c r="F128" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G128" t="s">
-        <v>289</v>
-      </c>
-      <c r="H128">
+      <c r="G128" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H128" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="I128" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s">
+      <c r="E129" s="4"/>
+      <c r="F129" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G129" t="s">
-        <v>289</v>
-      </c>
-      <c r="H129">
+      <c r="G129" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="I129" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s">
+      <c r="E130" s="4"/>
+      <c r="F130" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G130" t="s">
-        <v>289</v>
-      </c>
-      <c r="H130">
+      <c r="G130" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H130" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="I130" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s">
+      <c r="E131" s="4"/>
+      <c r="F131" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G131" t="s">
-        <v>289</v>
-      </c>
-      <c r="H131">
+      <c r="G131" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H131" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="I131" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s">
+      <c r="E132" s="4"/>
+      <c r="F132" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G132" t="s">
-        <v>289</v>
-      </c>
-      <c r="H132">
+      <c r="G132" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H132" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="I132" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s">
+      <c r="E133" s="4"/>
+      <c r="F133" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G133" t="s">
-        <v>289</v>
-      </c>
-      <c r="H133">
+      <c r="G133" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H133" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="I133" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s">
+      <c r="E134" s="4"/>
+      <c r="F134" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G134" t="s">
-        <v>289</v>
-      </c>
-      <c r="H134">
+      <c r="G134" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="I134" s="2">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="1"/>
+      <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="1"/>
+      <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="1"/>
+      <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="1"/>
+      <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="1"/>
+      <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="1"/>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="1"/>
+      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="1"/>
+      <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="1"/>
+      <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="1"/>
+      <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="1"/>
+      <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="1"/>
+      <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="1"/>
+      <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="1"/>
+      <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="1"/>
+      <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="1"/>
+      <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="1"/>
+      <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="1"/>
+      <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="1"/>
+      <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="1"/>
+      <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="A165" s="1"/>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="E166" s="2"/>
+      <c r="A166" s="1"/>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="A167" s="1"/>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="A168" s="1"/>
+      <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="A169" s="1"/>
+      <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="A170" s="1"/>
+      <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="A171" s="1"/>
+      <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="A172" s="1"/>
+      <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="A173" s="1"/>
+      <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="1"/>
+      <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="A175" s="1"/>
+      <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="A176" s="1"/>
+      <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="A177" s="1"/>
+      <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="A178" s="1"/>
+      <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="A179" s="1"/>
+      <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="A180" s="1"/>
+      <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="A181" s="1"/>
+      <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="A182" s="1"/>
+      <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="A183" s="1"/>
+      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="A184" s="1"/>
+      <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="A185" s="1"/>
+      <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="E186" s="2"/>
+      <c r="A186" s="1"/>
+      <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="E187" s="2"/>
+      <c r="A187" s="1"/>
+      <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="A188" s="1"/>
+      <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="A189" s="1"/>
+      <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="A190" s="1"/>
+      <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="A191" s="1"/>
+      <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="A192" s="1"/>
+      <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="A193" s="1"/>
+      <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="A194" s="1"/>
+      <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="E195" s="2"/>
+      <c r="A195" s="1"/>
+      <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="E196" s="2"/>
+      <c r="A196" s="1"/>
+      <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="E197" s="2"/>
+      <c r="A197" s="1"/>
+      <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="1"/>
+      <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="E199" s="2"/>
+      <c r="A199" s="1"/>
+      <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="E200" s="2"/>
+      <c r="A200" s="1"/>
+      <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="E201" s="2"/>
+      <c r="A201" s="1"/>
+      <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="E202" s="2"/>
+      <c r="A202" s="1"/>
+      <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="E203" s="2"/>
+      <c r="A203" s="1"/>
+      <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="E204" s="2"/>
+      <c r="A204" s="1"/>
+      <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="A205" s="1"/>
+      <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="E206" s="2"/>
+      <c r="A206" s="1"/>
+      <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="E207" s="2"/>
+      <c r="A207" s="1"/>
+      <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="E208" s="2"/>
+      <c r="A208" s="1"/>
+      <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="E209" s="2"/>
+      <c r="A209" s="1"/>
+      <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="E210" s="2"/>
+      <c r="A210" s="1"/>
+      <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="E211" s="2"/>
+      <c r="A211" s="1"/>
+      <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="E212" s="2"/>
+      <c r="A212" s="1"/>
+      <c r="E212" s="1"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="E213" s="2"/>
+      <c r="A213" s="1"/>
+      <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="A214" s="1"/>
+      <c r="E214" s="1"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="E215" s="2"/>
+      <c r="A215" s="1"/>
+      <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="E216" s="2"/>
+      <c r="A216" s="1"/>
+      <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="E217" s="2"/>
+      <c r="A217" s="1"/>
+      <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="A218" s="1"/>
+      <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="E219" s="2"/>
+      <c r="A219" s="1"/>
+      <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="E220" s="2"/>
+      <c r="A220" s="1"/>
+      <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="E221" s="2"/>
+      <c r="A221" s="1"/>
+      <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="E222" s="2"/>
+      <c r="A222" s="1"/>
+      <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="E223" s="2"/>
+      <c r="A223" s="1"/>
+      <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="E224" s="2"/>
+      <c r="A224" s="1"/>
+      <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="E225" s="2"/>
+      <c r="A225" s="1"/>
+      <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="E226" s="2"/>
+      <c r="A226" s="1"/>
+      <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="E227" s="2"/>
+      <c r="A227" s="1"/>
+      <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="E228" s="2"/>
+      <c r="A228" s="1"/>
+      <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="E229" s="2"/>
+      <c r="A229" s="1"/>
+      <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="E230" s="2"/>
+      <c r="A230" s="1"/>
+      <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="E231" s="2"/>
+      <c r="A231" s="1"/>
+      <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="E232" s="2"/>
+      <c r="A232" s="1"/>
+      <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="E233" s="2"/>
+      <c r="A233" s="1"/>
+      <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="E234" s="2"/>
+      <c r="A234" s="1"/>
+      <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="E235" s="2"/>
+      <c r="A235" s="1"/>
+      <c r="E235" s="1"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="E236" s="2"/>
+      <c r="A236" s="1"/>
+      <c r="E236" s="1"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="E237" s="2"/>
+      <c r="A237" s="1"/>
+      <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="E238" s="2"/>
+      <c r="A238" s="1"/>
+      <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="E239" s="2"/>
+      <c r="A239" s="1"/>
+      <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="E240" s="2"/>
+      <c r="A240" s="1"/>
+      <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="A241" s="1"/>
+      <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="A242" s="1"/>
+      <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="E243" s="2"/>
+      <c r="A243" s="1"/>
+      <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="E244" s="2"/>
+      <c r="A244" s="1"/>
+      <c r="E244" s="1"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="E245" s="2"/>
+      <c r="A245" s="1"/>
+      <c r="E245" s="1"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="E246" s="2"/>
+      <c r="A246" s="1"/>
+      <c r="E246" s="1"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="E247" s="2"/>
+      <c r="A247" s="1"/>
+      <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="E248" s="2"/>
+      <c r="A248" s="1"/>
+      <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="E249" s="2"/>
+      <c r="A249" s="1"/>
+      <c r="E249" s="1"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="E250" s="2"/>
+      <c r="A250" s="1"/>
+      <c r="E250" s="1"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="E251" s="2"/>
+      <c r="A251" s="1"/>
+      <c r="E251" s="1"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="E252" s="2"/>
+      <c r="A252" s="1"/>
+      <c r="E252" s="1"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="E253" s="2"/>
+      <c r="A253" s="1"/>
+      <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="E254" s="2"/>
+      <c r="A254" s="1"/>
+      <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="E255" s="2"/>
+      <c r="A255" s="1"/>
+      <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="E256" s="2"/>
+      <c r="A256" s="1"/>
+      <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="E257" s="2"/>
+      <c r="A257" s="1"/>
+      <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="E258" s="2"/>
+      <c r="A258" s="1"/>
+      <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="E259" s="2"/>
+      <c r="A259" s="1"/>
+      <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="E260" s="2"/>
+      <c r="A260" s="1"/>
+      <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="E261" s="2"/>
+      <c r="A261" s="1"/>
+      <c r="E261" s="1"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="E262" s="2"/>
+      <c r="A262" s="1"/>
+      <c r="E262" s="1"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="E263" s="2"/>
+      <c r="A263" s="1"/>
+      <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="E264" s="2"/>
+      <c r="A264" s="1"/>
+      <c r="E264" s="1"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="E265" s="2"/>
+      <c r="A265" s="1"/>
+      <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="E266" s="2"/>
+      <c r="A266" s="1"/>
+      <c r="E266" s="1"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="A267" s="1"/>
+      <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="A268" s="1"/>
+      <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="E269" s="2"/>
+      <c r="A269" s="1"/>
+      <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="E270" s="2"/>
+      <c r="A270" s="1"/>
+      <c r="E270" s="1"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="A271" s="1"/>
+      <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="E272" s="2"/>
+      <c r="A272" s="1"/>
+      <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="E273" s="2"/>
+      <c r="A273" s="1"/>
+      <c r="E273" s="1"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="E274" s="2"/>
+      <c r="A274" s="1"/>
+      <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="E275" s="2"/>
+      <c r="A275" s="1"/>
+      <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="E276" s="2"/>
+      <c r="A276" s="1"/>
+      <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="E277" s="2"/>
+      <c r="A277" s="1"/>
+      <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="E278" s="2"/>
+      <c r="A278" s="1"/>
+      <c r="E278" s="1"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="1"/>
+      <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="E280" s="2"/>
+      <c r="A280" s="1"/>
+      <c r="E280" s="1"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="E281" s="2"/>
+      <c r="A281" s="1"/>
+      <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="1"/>
+      <c r="E282" s="1"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="E283" s="2"/>
+      <c r="A283" s="1"/>
+      <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="E284" s="2"/>
+      <c r="A284" s="1"/>
+      <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="E285" s="2"/>
+      <c r="A285" s="1"/>
+      <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="E286" s="2"/>
+      <c r="A286" s="1"/>
+      <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="E287" s="2"/>
+      <c r="A287" s="1"/>
+      <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="E288" s="2"/>
+      <c r="A288" s="1"/>
+      <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="E289" s="2"/>
+      <c r="A289" s="1"/>
+      <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="E290" s="2"/>
+      <c r="A290" s="1"/>
+      <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="E291" s="2"/>
+      <c r="A291" s="1"/>
+      <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="E292" s="2"/>
+      <c r="A292" s="1"/>
+      <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="E293" s="2"/>
+      <c r="A293" s="1"/>
+      <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="E294" s="2"/>
+      <c r="A294" s="1"/>
+      <c r="E294" s="1"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="E295" s="2"/>
+      <c r="A295" s="1"/>
+      <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="E296" s="2"/>
+      <c r="A296" s="1"/>
+      <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-      <c r="E297" s="2"/>
+      <c r="A297" s="1"/>
+      <c r="E297" s="1"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-      <c r="E298" s="2"/>
+      <c r="A298" s="1"/>
+      <c r="E298" s="1"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-      <c r="E299" s="2"/>
+      <c r="A299" s="1"/>
+      <c r="E299" s="1"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="E300" s="2"/>
+      <c r="A300" s="1"/>
+      <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-      <c r="E301" s="2"/>
+      <c r="A301" s="1"/>
+      <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-      <c r="E302" s="2"/>
+      <c r="A302" s="1"/>
+      <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="E303" s="2"/>
+      <c r="A303" s="1"/>
+      <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-      <c r="E304" s="2"/>
+      <c r="A304" s="1"/>
+      <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-      <c r="E305" s="2"/>
+      <c r="A305" s="1"/>
+      <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
+      <c r="A369" s="1"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
+      <c r="A370" s="1"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
+      <c r="A378" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6000,4 +7077,1730 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC8697B-F046-4F53-874A-0910D7488742}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>564</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" t="s">
+        <v>575</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" t="s">
+        <v>575</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>581</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D18" t="s">
+        <v>585</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" t="s">
+        <v>589</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D20" t="s">
+        <v>589</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>594</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>599</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>606</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D28" t="s">
+        <v>612</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" t="s">
+        <v>612</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>617</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D31" t="s">
+        <v>617</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D32" t="s">
+        <v>624</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D34" t="s">
+        <v>630</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D35" t="s">
+        <v>630</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D36" t="s">
+        <v>636</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D37" t="s">
+        <v>636</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D39" t="s">
+        <v>641</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>646</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D42" t="s">
+        <v>653</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>654</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>656</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D45" t="s">
+        <v>659</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>661</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>662</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>663</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>665</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>485</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D51" t="s">
+        <v>669</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>672</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>673</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>675</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>677</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>679</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D58" t="s">
+        <v>683</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D59" t="s">
+        <v>686</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D60" t="s">
+        <v>690</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>691</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>692</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>693</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>695</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>697</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>699</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>700</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>701</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>702</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D71" t="s">
+        <v>706</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>707</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>709</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>710</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" t="s">
+        <v>711</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D76" t="s">
+        <v>715</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" t="s">
+        <v>717</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>718</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D79" t="s">
+        <v>722</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" t="s">
+        <v>516</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D81" t="s">
+        <v>526</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D82" t="s">
+        <v>726</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D83" t="s">
+        <v>731</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D84" t="s">
+        <v>733</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
 </file>